--- a/input_data/tst.xlsx
+++ b/input_data/tst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/f0064z8/Library/CloudStorage/GoogleDrive-si2442@columbia.edu/My Drive/research/asymmetry_design/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D0DE60-D566-D148-8E1E-B22B0BAE94FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EEAD86-ACFF-9245-BCC1-AF01873597FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18360" yWindow="500" windowWidth="20040" windowHeight="18400" xr2:uid="{71605496-A409-C848-8006-CC14B24D79D1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>noise</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>disp_order</t>
+  </si>
+  <si>
+    <t>anchor</t>
   </si>
 </sst>
 </file>
@@ -422,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06A78C6-BACE-A642-A972-C42E36E8C8FF}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -440,8 +443,11 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-4</v>
       </c>
@@ -451,8 +457,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -462,120 +471,153 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>-2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>-3</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>-4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>-2</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>-1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>-1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -583,38 +625,50 @@
       <c r="C14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>-1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>-3</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>-4</v>
-      </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17">
         <v>4</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
